--- a/AI Value Realization Framework Template (ROI Calculation).xlsx
+++ b/AI Value Realization Framework Template (ROI Calculation).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6960" tabRatio="823" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6960" tabRatio="823"/>
   </bookViews>
   <sheets>
     <sheet name="Workbook Notes" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="223">
   <si>
     <t>Simple</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Purpose of this template is to provide a simple mechanism for calculating ROI on AI project</t>
   </si>
   <si>
-    <t>This framework is not a guideline, Just an approach that can be customized or enhanced to individual need</t>
-  </si>
-  <si>
     <t>Welcome to the AI Value Realization Framework Template</t>
   </si>
   <si>
@@ -713,6 +710,15 @@
   </si>
   <si>
     <t>Check Return on Investment sheet for more details</t>
+  </si>
+  <si>
+    <t>This framework is not a policy or standard or procedure, Just an approach that can be customized or enhanced to individual need</t>
+  </si>
+  <si>
+    <t>Future Release :</t>
+  </si>
+  <si>
+    <t>Using business value model to arrive at right business value taking into consideration impact of existing system deployed in business process</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,6 +1007,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:B17"/>
+  <dimension ref="B6:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,12 +1425,12 @@
   <sheetData>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
@@ -1431,17 +1440,17 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="105" x14ac:dyDescent="0.25">
@@ -1466,7 +1475,17 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1674,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
@@ -1746,7 +1765,7 @@
         <v>118</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -1765,7 +1784,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>125</v>
@@ -1793,7 +1812,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="120" x14ac:dyDescent="0.25">
@@ -1801,13 +1820,13 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -1866,7 +1885,7 @@
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,12 +2288,12 @@
     </row>
     <row r="12" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2307,7 @@
   <dimension ref="C2:K28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3625,7 @@
   <dimension ref="E3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AI Value Realization Framework Template (ROI Calculation).xlsx
+++ b/AI Value Realization Framework Template (ROI Calculation).xlsx
@@ -667,11 +667,6 @@
     <t>Quick Notes on this Template:</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to my supporting LinkedIn article to know more about this framework
-          - https://www.linkedin.com/pulse/identifying-prioritizing-artificial-intelligence-use-cases-srivatsan/
-          - </t>
-  </si>
-  <si>
     <t>In case if you need any info or find any bug please log issues in GitHub link attached below. Issues link will be on top of repo
          - https://github.com/srivatsan88/AI-Value-Realization-Framework</t>
   </si>
@@ -719,6 +714,11 @@
   </si>
   <si>
     <t>Using business value model to arrive at right business value taking into consideration impact of existing system deployed in business process</t>
+  </si>
+  <si>
+    <t>Refer to my supporting LinkedIn article to know more about this framework
+          - https://www.linkedin.com/pulse/identifying-prioritizing-artificial-intelligence-use-cases-srivatsan/
+          - https://www.linkedin.com/pulse/prioritizing-artificial-intelligence-use-cases-roi-part-srinivasan/</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,7 @@
   <dimension ref="B6:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,17 +1440,17 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="105" x14ac:dyDescent="0.25">
@@ -1475,17 +1475,17 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1729,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>118</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>125</v>
@@ -1812,7 +1812,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="120" x14ac:dyDescent="0.25">
@@ -1820,13 +1820,13 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -2288,12 +2288,12 @@
     </row>
     <row r="12" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
